--- a/Data/NYC-demographic-other-data.xlsx
+++ b/Data/NYC-demographic-other-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RScripts\BAC@MC 2021\BAC-MC-2021\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1F414E-5EAE-45D1-86A9-C5D0E4F5A1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61624E87-2563-4B72-BB0D-C347E250FC6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="17616" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poverty rate" sheetId="15" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6092" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="361">
   <si>
     <t>Jail Incarceration</t>
   </si>
@@ -7737,7 +7737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB8070A-7225-4466-AE7C-586BCAA03758}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -10893,7 +10893,7 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13912,7 +13912,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15317,7 +15317,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21276,8 +21276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DEA0A5-BEEC-41C9-A63E-E4165C884850}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26960,8 +26960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927CDE6F-3EDC-4FB1-B492-7F34B8E15632}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29945,10 +29945,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6951FF4-8213-485E-8278-BEEBE9EC599D}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -29957,7 +29957,7 @@
     <col min="2" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -29994,29 +29994,11 @@
       <c r="L1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="W1" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
@@ -30053,11 +30035,8 @@
       <c r="L2" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -30095,7 +30074,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>154</v>
       </c>
@@ -30132,11 +30111,8 @@
       <c r="L4" s="3">
         <v>8.6</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -30173,14 +30149,8 @@
       <c r="L5" s="3">
         <v>5.2</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -30218,7 +30188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -30256,7 +30226,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>154</v>
       </c>
@@ -30294,7 +30264,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>154</v>
       </c>
@@ -30331,14 +30301,8 @@
       <c r="L9" s="3">
         <v>6</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>154</v>
       </c>
@@ -30375,14 +30339,8 @@
       <c r="L10" s="3">
         <v>5</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>154</v>
       </c>
@@ -30419,14 +30377,8 @@
       <c r="L11" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -30463,14 +30415,8 @@
       <c r="L12" s="3">
         <v>4</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
@@ -30508,7 +30454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>154</v>
       </c>
@@ -30545,11 +30491,8 @@
       <c r="L14" s="3">
         <v>10.4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>154</v>
       </c>
@@ -30586,14 +30529,8 @@
       <c r="L15" s="3">
         <v>6.4</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>154</v>
       </c>
@@ -30630,14 +30567,8 @@
       <c r="L16" s="3">
         <v>5.8</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>154</v>
       </c>
@@ -30674,14 +30605,8 @@
       <c r="L17" s="3">
         <v>6.2</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
         <v>154</v>
       </c>
@@ -30718,11 +30643,8 @@
       <c r="L18" s="3">
         <v>7.4</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
         <v>154</v>
       </c>
@@ -30759,11 +30681,8 @@
       <c r="L19" s="3">
         <v>9.6</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
         <v>154</v>
       </c>
@@ -30801,7 +30720,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
         <v>154</v>
       </c>
@@ -30839,7 +30758,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
         <v>154</v>
       </c>
@@ -30877,7 +30796,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
@@ -30914,11 +30833,8 @@
       <c r="L23" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
         <v>154</v>
       </c>
@@ -30955,14 +30871,8 @@
       <c r="L24" s="3">
         <v>6</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>154</v>
       </c>
@@ -31000,7 +30910,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>154</v>
       </c>
@@ -31038,7 +30948,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>154</v>
       </c>
@@ -31075,14 +30985,8 @@
       <c r="L27" s="3">
         <v>6.4</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>154</v>
       </c>
@@ -31119,11 +31023,8 @@
       <c r="L28" s="3">
         <v>8.6</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>154</v>
       </c>
@@ -31160,11 +31061,8 @@
       <c r="L29" s="3">
         <v>7.8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>154</v>
       </c>
@@ -31201,14 +31099,8 @@
       <c r="L30" s="3">
         <v>6</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>154</v>
       </c>
@@ -31246,7 +31138,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
         <v>154</v>
       </c>
@@ -31284,7 +31176,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
         <v>154</v>
       </c>
@@ -31322,7 +31214,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
         <v>154</v>
       </c>
@@ -31359,14 +31251,8 @@
       <c r="L34" s="3">
         <v>5.8</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
         <v>154</v>
       </c>
@@ -31403,14 +31289,8 @@
       <c r="L35" s="3">
         <v>7</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>154</v>
       </c>
@@ -31447,14 +31327,8 @@
       <c r="L36" s="3">
         <v>7</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
         <v>154</v>
       </c>
@@ -31491,14 +31365,8 @@
       <c r="L37" s="3">
         <v>5.8</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
         <v>154</v>
       </c>
@@ -31536,7 +31404,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
         <v>154</v>
       </c>
@@ -31573,14 +31441,8 @@
       <c r="L39" s="3">
         <v>6.2</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
@@ -31617,14 +31479,8 @@
       <c r="L40" s="3">
         <v>7.2</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -31661,14 +31517,8 @@
       <c r="L41" s="3">
         <v>6.4</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
         <v>154</v>
       </c>
@@ -31706,7 +31556,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -31744,7 +31594,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
         <v>154</v>
       </c>
@@ -31782,7 +31632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
         <v>154</v>
       </c>
@@ -31819,14 +31669,8 @@
       <c r="L45" s="3">
         <v>6</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
         <v>154</v>
       </c>
@@ -31864,7 +31708,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
         <v>154</v>
       </c>
@@ -31902,7 +31746,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
         <v>154</v>
       </c>
@@ -31939,11 +31783,8 @@
       <c r="L48" s="3">
         <v>7.8</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>154</v>
       </c>
@@ -31981,7 +31822,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>154</v>
       </c>
@@ -32018,11 +31859,8 @@
       <c r="L50" s="3">
         <v>8.6</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
         <v>154</v>
       </c>
@@ -32059,14 +31897,8 @@
       <c r="L51" s="3">
         <v>5</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
         <v>154</v>
       </c>
@@ -32104,7 +31936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
@@ -32142,7 +31974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
         <v>154</v>
       </c>
@@ -32180,7 +32012,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
         <v>154</v>
       </c>
@@ -32217,11 +32049,8 @@
       <c r="L55" s="3">
         <v>6.8</v>
       </c>
-      <c r="M55" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="3" t="s">
         <v>154</v>
       </c>
@@ -32257,12 +32086,6 @@
       </c>
       <c r="L56" s="3">
         <v>6.4</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -32276,12 +32099,14 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="5" width="8.6640625" style="3"/>
+    <col min="6" max="6" width="25.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
